--- a/data/trans_orig/P50A_2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P50A_2-Estudios-trans_orig.xlsx
@@ -745,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4573</v>
+        <v>4381</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0009870755414759624</v>
@@ -754,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.004903578377102745</v>
+        <v>0.00469713654305003</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -779,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>4389</v>
+        <v>4612</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0004257084005672166</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.002029445463287997</v>
+        <v>0.002132604725992472</v>
       </c>
     </row>
     <row r="5">
@@ -808,7 +808,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5940</v>
+        <v>5177</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.001103874004620264</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.006368904578244373</v>
+        <v>0.005550236474091937</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -842,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>4962</v>
+        <v>5159</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.000476081532961441</v>
@@ -851,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.002294517784513896</v>
+        <v>0.002385632841416338</v>
       </c>
     </row>
     <row r="6">
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>10272</v>
+        <v>12491</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.003440049142506526</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.01101355766900295</v>
+        <v>0.01339206549481067</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>7</v>
@@ -889,19 +889,19 @@
         <v>7044</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>3023</v>
+        <v>2931</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>14015</v>
+        <v>14141</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.005727080853320896</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.002457628906231248</v>
+        <v>0.002383190718043833</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.01139540018079939</v>
+        <v>0.01149773359354295</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>9</v>
@@ -910,19 +910,19 @@
         <v>10252</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>4642</v>
+        <v>4974</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>18983</v>
+        <v>19293</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.004740724114908084</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.002146520190809074</v>
+        <v>0.002300228680233163</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.008778047275394954</v>
+        <v>0.008921491329635286</v>
       </c>
     </row>
     <row r="7">
@@ -939,19 +939,19 @@
         <v>927526</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>919840</v>
+        <v>919393</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>930849</v>
+        <v>930852</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9944690013113973</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9862279149490609</v>
+        <v>0.9857484511107797</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.998031388181461</v>
+        <v>0.9980342929972064</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1140</v>
@@ -960,19 +960,19 @@
         <v>1222856</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1215885</v>
+        <v>1215759</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>1226877</v>
+        <v>1226969</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9942729191466791</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9886045998192003</v>
+        <v>0.988502266406457</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9975423710937686</v>
+        <v>0.9976168092819561</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>2005</v>
@@ -981,19 +981,19 @@
         <v>2150384</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2139631</v>
+        <v>2140191</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>2155901</v>
+        <v>2156193</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9943574859515633</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9893853327753638</v>
+        <v>0.9896444333254943</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9969090136083911</v>
+        <v>0.9970436140872477</v>
       </c>
     </row>
     <row r="8">
@@ -1085,19 +1085,19 @@
         <v>4022</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1038</v>
+        <v>1166</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>9696</v>
+        <v>10345</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.002074741673384683</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.0005353481710824319</v>
+        <v>0.0006011975735099376</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.005001257090525181</v>
+        <v>0.005335919031854986</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>0</v>
@@ -1119,19 +1119,19 @@
         <v>4022</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1037</v>
+        <v>974</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>10449</v>
+        <v>9419</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.001098878824711747</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.0002832975338854451</v>
+        <v>0.0002659605023787602</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.002854632740039745</v>
+        <v>0.002573189600059745</v>
       </c>
     </row>
     <row r="10">
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5872</v>
+        <v>6724</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0009952858244051974</v>
@@ -1160,7 +1160,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.003028607796074194</v>
+        <v>0.003468157311646444</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -1172,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6703</v>
+        <v>5935</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.001124942847699517</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.003893108160440922</v>
+        <v>0.003447084071914859</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>4</v>
@@ -1190,19 +1190,19 @@
         <v>3866</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>9871</v>
+        <v>8862</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.00105627051166799</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0002670425935616699</v>
+        <v>0.0002657285126707657</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.002696733889526617</v>
+        <v>0.002421064051926501</v>
       </c>
     </row>
     <row r="11">
@@ -1219,19 +1219,19 @@
         <v>23960</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>15617</v>
+        <v>15448</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>36088</v>
+        <v>35967</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.0123584366573454</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.008055203043195507</v>
+        <v>0.007967812891176592</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01861405089372054</v>
+        <v>0.01855147526742625</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>6</v>
@@ -1240,19 +1240,19 @@
         <v>6817</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>2868</v>
+        <v>1998</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>14917</v>
+        <v>14480</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.003959252655519663</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.001665906194598834</v>
+        <v>0.001160430550247609</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.008664209423857153</v>
+        <v>0.008410162926800297</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>28</v>
@@ -1261,19 +1261,19 @@
         <v>30777</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>20520</v>
+        <v>20775</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>43669</v>
+        <v>44212</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.008407847660317004</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.005605791267949253</v>
+        <v>0.005675567927515788</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01192999373557415</v>
+        <v>0.01207814013905076</v>
       </c>
     </row>
     <row r="12">
@@ -1290,19 +1290,19 @@
         <v>1908846</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1895912</v>
+        <v>1895915</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1918735</v>
+        <v>1918782</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9845715358448647</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9779004837527523</v>
+        <v>0.9779019652199149</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9896722404746964</v>
+        <v>0.9896965492837864</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1594</v>
@@ -1311,19 +1311,19 @@
         <v>1712966</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1704327</v>
+        <v>1704127</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>1717743</v>
+        <v>1717855</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9949158044967809</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9898977037145813</v>
+        <v>0.9897820127147239</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9976902907144938</v>
+        <v>0.9977550987674368</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>3399</v>
@@ -1332,19 +1332,19 @@
         <v>3621812</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>3606013</v>
+        <v>3607205</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>3633257</v>
+        <v>3633160</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9894370030033033</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9851207760835603</v>
+        <v>0.985446385607732</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9925634198861188</v>
+        <v>0.9925369321586639</v>
       </c>
     </row>
     <row r="13">
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>5650</v>
+        <v>5274</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.001956205211753616</v>
@@ -1495,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.01179480685883842</v>
+        <v>0.01101149107042636</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>0</v>
@@ -1520,7 +1520,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>5305</v>
+        <v>5293</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.001006131133774702</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.005696036110451116</v>
+        <v>0.005683070474758456</v>
       </c>
     </row>
     <row r="16">
@@ -1549,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6343</v>
+        <v>6382</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.002632340825574603</v>
@@ -1558,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01324322136191276</v>
+        <v>0.01332457250004714</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>4797</v>
+        <v>4852</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.002131721502556468</v>
@@ -1579,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01060586048204</v>
+        <v>0.01072721354876056</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2</v>
@@ -1591,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>7787</v>
+        <v>8231</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.002389204042747757</v>
@@ -1600,7 +1600,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.008361084036009632</v>
+        <v>0.008838230842178657</v>
       </c>
     </row>
     <row r="17">
@@ -1617,7 +1617,7 @@
         <v>476797</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>471525</v>
+        <v>471501</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>478995</v>
@@ -1626,7 +1626,7 @@
         <v>0.9954114539626718</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9844052599311831</v>
+        <v>0.9843547582902367</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -1638,7 +1638,7 @@
         <v>451344</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>447511</v>
+        <v>447456</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>452308</v>
@@ -1647,7 +1647,7 @@
         <v>0.9978682784974435</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.98939413951796</v>
+        <v>0.9892727864512394</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -1659,19 +1659,19 @@
         <v>928141</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>922134</v>
+        <v>922205</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>930366</v>
+        <v>930358</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9966046648234775</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9901543051721242</v>
+        <v>0.9902305518119912</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9989933486413337</v>
+        <v>0.9989851456304499</v>
       </c>
     </row>
     <row r="18">
@@ -1766,16 +1766,16 @@
         <v>1831</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>11578</v>
+        <v>11021</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.001475345063324193</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0005463805829483911</v>
+        <v>0.0005466425086184272</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.003455760785069444</v>
+        <v>0.003289293404712283</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>0</v>
@@ -1797,19 +1797,19 @@
         <v>4943</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1816</v>
+        <v>1937</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>11173</v>
+        <v>11367</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0007318306867192992</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0002688574657889001</v>
+        <v>0.0002867402674021541</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.001654226134854384</v>
+        <v>0.001682935142488625</v>
       </c>
     </row>
     <row r="20">
@@ -1826,19 +1826,19 @@
         <v>3896</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>955</v>
+        <v>977</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>9605</v>
+        <v>10023</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.001162892040650123</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0002849433955781518</v>
+        <v>0.0002917232804807526</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.002866750717917957</v>
+        <v>0.002991697873473741</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2</v>
@@ -1850,7 +1850,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>6719</v>
+        <v>6877</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.0005690004773693738</v>
@@ -1859,7 +1859,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.00197390412199379</v>
+        <v>0.002020252993244489</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>6</v>
@@ -1868,19 +1868,19 @@
         <v>5833</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1947</v>
+        <v>1918</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>11506</v>
+        <v>12503</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.0008635946583491513</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0002882535686489734</v>
+        <v>0.000283976094860439</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.001703562940793633</v>
+        <v>0.001851142130442207</v>
       </c>
     </row>
     <row r="21">
@@ -1897,19 +1897,19 @@
         <v>28429</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>19823</v>
+        <v>18642</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>42903</v>
+        <v>42804</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.008485271296667271</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.00591664569000475</v>
+        <v>0.005563962636942894</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.01280513967308176</v>
+        <v>0.01277558139918189</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>14</v>
@@ -1918,19 +1918,19 @@
         <v>14825</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>7938</v>
+        <v>9006</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>23769</v>
+        <v>24761</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.004355161756443899</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.002331905839425826</v>
+        <v>0.00264582723940629</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.006982751738101729</v>
+        <v>0.007274243317412444</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>39</v>
@@ -1939,19 +1939,19 @@
         <v>43254</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>31240</v>
+        <v>31233</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>59818</v>
+        <v>58559</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.006403862752695801</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.004625084324165599</v>
+        <v>0.004624058461243892</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.008856250524433864</v>
+        <v>0.008669784361060673</v>
       </c>
     </row>
     <row r="22">
@@ -1968,19 +1968,19 @@
         <v>3313169</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3299883</v>
+        <v>3297928</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>3324779</v>
+        <v>3324610</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9888764915993584</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9849108494709564</v>
+        <v>0.9843274837119284</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9923416847141366</v>
+        <v>0.992291272654958</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3139</v>
@@ -1989,19 +1989,19 @@
         <v>3387167</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3377416</v>
+        <v>3376723</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>3394915</v>
+        <v>3393216</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9950758377661867</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9922112983071421</v>
+        <v>0.9920078643841699</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9973520602513694</v>
+        <v>0.9968530831524651</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>6244</v>
@@ -2010,19 +2010,19 @@
         <v>6700337</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>6680224</v>
+        <v>6683527</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>6713067</v>
+        <v>6713915</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9920007119022357</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9890229483074985</v>
+        <v>0.9895119342656097</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9938854530334034</v>
+        <v>0.9940109615311846</v>
       </c>
     </row>
     <row r="23">
@@ -2369,7 +2369,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5064</v>
+        <v>5184</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.001109311291204613</v>
@@ -2378,7 +2378,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.005425243682202426</v>
+        <v>0.0055531982389922</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1</v>
@@ -2390,7 +2390,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>5197</v>
+        <v>5826</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0006288824241642666</v>
@@ -2399,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.003156375579344966</v>
+        <v>0.003538320774118447</v>
       </c>
     </row>
     <row r="5">
@@ -2432,7 +2432,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>4652</v>
+        <v>4375</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.0009900618593195239</v>
@@ -2441,7 +2441,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.004983299859406757</v>
+        <v>0.004686204613698217</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1</v>
@@ -2453,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>4634</v>
+        <v>5573</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.0005612784320308505</v>
@@ -2462,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.002814464019586775</v>
+        <v>0.003384392113558009</v>
       </c>
     </row>
     <row r="6">
@@ -2479,19 +2479,19 @@
         <v>10981</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5331</v>
+        <v>5843</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>19572</v>
+        <v>20318</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01539837363683796</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.00747566642669299</v>
+        <v>0.008193074242972446</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.02744443077638917</v>
+        <v>0.0284904353718422</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>4</v>
@@ -2500,19 +2500,19 @@
         <v>4339</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1089</v>
+        <v>1070</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>11486</v>
+        <v>10779</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.004647950577592438</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.001166341391529939</v>
+        <v>0.001145742871547119</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.01230418726717666</v>
+        <v>0.01154661597718056</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>14</v>
@@ -2521,19 +2521,19 @@
         <v>15320</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>8543</v>
+        <v>8730</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>25658</v>
+        <v>25447</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.00930382455229003</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.005187936676229836</v>
+        <v>0.005301726039923322</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01558182077456171</v>
+        <v>0.01545382667887929</v>
       </c>
     </row>
     <row r="7">
@@ -2550,19 +2550,19 @@
         <v>702161</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>693570</v>
+        <v>692824</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>707811</v>
+        <v>707299</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9846016263631621</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9725555692236109</v>
+        <v>0.9715095646281574</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9925243335733069</v>
+        <v>0.9918069257570274</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>834</v>
@@ -2571,19 +2571,19 @@
         <v>927206</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>920128</v>
+        <v>920546</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>931428</v>
+        <v>931161</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9932526762718834</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.985670316685145</v>
+        <v>0.9861181924937515</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9977752748048048</v>
+        <v>0.997489156759456</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1544</v>
@@ -2592,19 +2592,19 @@
         <v>1629367</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1619046</v>
+        <v>1619321</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1636473</v>
+        <v>1636432</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9895060145915149</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9832379283120142</v>
+        <v>0.9834050063987396</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9938213304536155</v>
+        <v>0.9937963482478821</v>
       </c>
     </row>
     <row r="8">
@@ -2712,7 +2712,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>5442</v>
+        <v>6057</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.00056393464340033</v>
@@ -2721,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.002829192359177289</v>
+        <v>0.003148863261054556</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>6508</v>
+        <v>6493</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.0002734705030041633</v>
@@ -2742,7 +2742,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.001640623333197307</v>
+        <v>0.00163686767916772</v>
       </c>
     </row>
     <row r="10">
@@ -2762,7 +2762,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6348</v>
+        <v>7237</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.001030914086122299</v>
@@ -2771,7 +2771,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.003106847041230498</v>
+        <v>0.003542026847955872</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -2796,7 +2796,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>7105</v>
+        <v>6354</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.00053098985379276</v>
@@ -2805,7 +2805,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.00179116729991229</v>
+        <v>0.001601741004401942</v>
       </c>
     </row>
     <row r="11">
@@ -2822,19 +2822,19 @@
         <v>10615</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>5415</v>
+        <v>5312</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>19095</v>
+        <v>19187</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.005195473311566372</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.002650202082982735</v>
+        <v>0.002599987150448109</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.009346342058386262</v>
+        <v>0.009391089508902698</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>4</v>
@@ -2843,19 +2843,19 @@
         <v>3626</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>8255</v>
+        <v>8833</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.001885185506007267</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.0004809013516441721</v>
+        <v>0.0004818594393832436</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.004291355852931267</v>
+        <v>0.004592222585335069</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>14</v>
@@ -2864,19 +2864,19 @@
         <v>14241</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>8141</v>
+        <v>8433</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>22298</v>
+        <v>24951</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.003590205605691173</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.002052363844072942</v>
+        <v>0.002125978879852739</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.005621253787963389</v>
+        <v>0.006290154692930167</v>
       </c>
     </row>
     <row r="12">
@@ -2893,19 +2893,19 @@
         <v>2030376</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2021756</v>
+        <v>2021299</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2035983</v>
+        <v>2036552</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9937736126023113</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.98955475775964</v>
+        <v>0.9893307691891912</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9965181223611789</v>
+        <v>0.9967966588840736</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1842</v>
@@ -2914,19 +2914,19 @@
         <v>1918854</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1913416</v>
+        <v>1913178</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>1922483</v>
+        <v>1921791</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9975508798505924</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9947238425248575</v>
+        <v>0.9945999536635544</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9994375468253182</v>
+        <v>0.9990779087365602</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>3749</v>
@@ -2935,19 +2935,19 @@
         <v>3949230</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>3939977</v>
+        <v>3937825</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>3956619</v>
+        <v>3955831</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9956053340375119</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9932725659472273</v>
+        <v>0.9927301023934967</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9974680534932205</v>
+        <v>0.9972694375063914</v>
       </c>
     </row>
     <row r="13">
@@ -3055,7 +3055,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>5046</v>
+        <v>4997</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.001849504064089474</v>
@@ -3064,7 +3064,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.009278539020452907</v>
+        <v>0.009189140631529657</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5036</v>
+        <v>4994</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.0009262112879774082</v>
@@ -3085,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.004638116204863697</v>
+        <v>0.004598896605731502</v>
       </c>
     </row>
     <row r="15">
@@ -3152,7 +3152,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9450</v>
+        <v>10926</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.003500985319331197</v>
@@ -3161,7 +3161,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01743285936246884</v>
+        <v>0.02015604990960566</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -3173,7 +3173,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5043</v>
+        <v>5813</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.001833269354644762</v>
@@ -3182,7 +3182,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.009274432184317286</v>
+        <v>0.0106893362665547</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2</v>
@@ -3194,7 +3194,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>10432</v>
+        <v>10254</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.002665811511593091</v>
@@ -3203,7 +3203,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.009606691467658857</v>
+        <v>0.009443467164408451</v>
       </c>
     </row>
     <row r="17">
@@ -3220,7 +3220,7 @@
         <v>540184</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>532632</v>
+        <v>531156</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>542082</v>
@@ -3229,7 +3229,7 @@
         <v>0.9964990146806688</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9825671406375311</v>
+        <v>0.9798439500903936</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -3241,7 +3241,7 @@
         <v>541793</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>537687</v>
+        <v>537549</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>543796</v>
@@ -3250,7 +3250,7 @@
         <v>0.9963172265812658</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9887667072233791</v>
+        <v>0.9885130983716147</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -3262,19 +3262,19 @@
         <v>1081978</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1075172</v>
+        <v>1074489</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1084883</v>
+        <v>1084882</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9964079772004295</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9901403834751892</v>
+        <v>0.989511671486014</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9990839869937017</v>
+        <v>0.9990826753140182</v>
       </c>
     </row>
     <row r="18">
@@ -3379,19 +3379,19 @@
         <v>3126</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>9114</v>
+        <v>8319</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0009191968470533253</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0002964497928896124</v>
+        <v>0.0002955840456483286</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.002679945865834914</v>
+        <v>0.002446212613383732</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>3</v>
@@ -3400,19 +3400,19 @@
         <v>3126</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>8268</v>
+        <v>8552</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.000466633489664506</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0001499473258529972</v>
+        <v>0.0001498466293564172</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.001234241940297823</v>
+        <v>0.001276568447290411</v>
       </c>
     </row>
     <row r="20">
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>7369</v>
+        <v>7386</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.000638584613411152</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.002234019734906198</v>
+        <v>0.002239382225799141</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1</v>
@@ -3453,7 +3453,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>4630</v>
+        <v>4912</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.0002717623514779966</v>
@@ -3462,7 +3462,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.001361277302054151</v>
+        <v>0.001444285111687647</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>3</v>
@@ -3471,19 +3471,19 @@
         <v>3030</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>7953</v>
+        <v>8196</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.0004523660110288425</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0001376796537458121</v>
+        <v>0.0001373432897522238</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.001187109121249487</v>
+        <v>0.001223425303471182</v>
       </c>
     </row>
     <row r="21">
@@ -3500,19 +3500,19 @@
         <v>23494</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>15146</v>
+        <v>14914</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>35660</v>
+        <v>36848</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.007122988853003073</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.004591945320709732</v>
+        <v>0.004521755935487165</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.01081153182654299</v>
+        <v>0.01117189484208058</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>9</v>
@@ -3521,19 +3521,19 @@
         <v>8962</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>4464</v>
+        <v>4277</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>16344</v>
+        <v>16783</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.002635236293774942</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.001312732032237079</v>
+        <v>0.001257634063346912</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.004805854334922575</v>
+        <v>0.004934903155345144</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>30</v>
@@ -3542,19 +3542,19 @@
         <v>32456</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>22606</v>
+        <v>21401</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>46136</v>
+        <v>45631</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.004844765593016245</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.003374397944634572</v>
+        <v>0.003194624955026682</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.006886760825970522</v>
+        <v>0.006811415668337328</v>
       </c>
     </row>
     <row r="22">
@@ -3571,19 +3571,19 @@
         <v>3272721</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3259521</v>
+        <v>3258407</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>3281458</v>
+        <v>3281373</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9922384265335857</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9882365659312241</v>
+        <v>0.9878985573129663</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9948873431799753</v>
+        <v>0.9948617249049713</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3195</v>
@@ -3592,19 +3592,19 @@
         <v>3387854</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3379452</v>
+        <v>3378727</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>3393624</v>
+        <v>3393864</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9961738045076938</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9937035068895467</v>
+        <v>0.9934902522035197</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9978704798276586</v>
+        <v>0.9979409859718134</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>6307</v>
@@ -3613,19 +3613,19 @@
         <v>6660574</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>6646273</v>
+        <v>6645593</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>6671586</v>
+        <v>6672049</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9942362349062904</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9921013680188099</v>
+        <v>0.9919999906710071</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9958799885810663</v>
+        <v>0.9959491244282774</v>
       </c>
     </row>
     <row r="23">
